--- a/data/long_razon/P27_N-Estudios-long_razon.xlsx
+++ b/data/long_razon/P27_N-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P27_N-Estudios-long_razon.xlsx
+++ b/data/long_razon/P27_N-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.1543626427847094</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6162735930799452</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.02838184357509601</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>-0.1083783527681562</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.7681746584490781</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.5705147619949059</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>-0.01880768091152389</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.7004366252857364</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.3806505943144587</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.2861633949048086</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.151418414390517</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.411344083099488</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.3774123415662756</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.3842138091300655</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.6970018710471626</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.2525352416543332</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.3638514973686929</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.5407038452915517</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.8161190897996483</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.279431986254843</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.8237348354919933</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.2478150998420135</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.341929031631617</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-0.39677803750302</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>0.3407007597420924</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.071780699789001</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.0489909114425303</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1704525556245352</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4141606085170108</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2662286341375873</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>0.2737322675386282</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1411366452517431</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.3435613694883862</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>0.2290888639623544</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.2539230865902699</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.3101104572063718</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.1752324573808171</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.09946245858748741</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.473369961060688</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.03736325324142563</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.06472137588708723</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4819338498132367</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>0.009021057043435378</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.07223827185834604</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.4440337127207132</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.6500481930652454</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.8840730925359801</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.007513780818813843</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>0.610373979353848</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3576783727262511</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-0.1527971928185791</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.4974704277238997</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.4683312341182939</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.1642751048153765</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1285668521849432</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5610628559260653</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.121972186131427</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.3584828440616269</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.2332385726521072</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2647217576901811</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.1000763751529106</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.3788085325610843</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.09894121034768207</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.3797600004358748</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2061159250652977</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.174002083673893</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>0.03210660319070448</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.008654126037178873</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4261226320835197</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.09462448140312674</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.1713117473461197</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2602624226309829</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1739829799224494</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.059893671720169</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6007399628179434</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.7693654461338798</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.5523857620550913</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.05882085116409674</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.3750258313885201</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.6480440059895188</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.1183455842411779</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.04772607316907712</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5090389713348217</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.08030639677875315</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>0.1924903979477709</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.310178578617073</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.3973330480621177</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>0.1282142014619083</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.3957197930775711</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.2686064595245908</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1553207790594788</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3015077588211302</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2540150086753186</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>-0.01265371720969457</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.1579008199043128</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.489468770912811</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>-0.01361041934005146</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.2580127689583608</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.3640109440546639</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.3094775365752768</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8062161727566177</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1968237627029112</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.3774584590430184</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.4829687504646687</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.2940028910904164</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.2953743942432302</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.5271393932980271</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.1524624306017028</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
